--- a/AmpedBiz/.data/ImportFiles/Nicon/default_suppliers.xlsx
+++ b/AmpedBiz/.data/ImportFiles/Nicon/default_suppliers.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_repo\Narasoft\tinda\trunk\AmpedBiz\AmpedBiz.Service.Host\Data\Default\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_repo\Narasoft\tinda\trunk\AmpedBiz\.data\ImportFiles\Nicon\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -20,7 +20,7 @@
     <definedName name="_xlnm.Print_Area" localSheetId="0">smscci_coffee!$A$2:$O$42</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">smscci_coffee!$1:$8</definedName>
   </definedNames>
-  <calcPr calcId="171027" concurrentCalc="0"/>
+  <calcPr calcId="171027" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -175,7 +175,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="86">
   <si>
     <t>SAN MIGUEL INTEGRATED SALES</t>
   </si>
@@ -414,19 +414,25 @@
     <t>SRP/TP</t>
   </si>
   <si>
-    <t>Supplier Name</t>
-  </si>
-  <si>
     <t>SMIS</t>
   </si>
   <si>
-    <t>Supplier Id</t>
-  </si>
-  <si>
     <t>SAN MIGUEL</t>
   </si>
   <si>
     <t>Contact Person</t>
+  </si>
+  <si>
+    <t>AS</t>
+  </si>
+  <si>
+    <t>ANOTHER SUPPLIER</t>
+  </si>
+  <si>
+    <t>Code</t>
+  </si>
+  <si>
+    <t>Name</t>
   </si>
 </sst>
 </file>
@@ -2831,10 +2837,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -2857,25 +2863,33 @@
   <sheetData>
     <row r="1" spans="1:5" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="84" t="s">
+        <v>84</v>
+      </c>
+      <c r="B1" s="84" t="s">
         <v>81</v>
       </c>
-      <c r="B1" s="84" t="s">
-        <v>83</v>
-      </c>
       <c r="C1" s="84" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="83" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B2" s="83"/>
       <c r="C2" s="87" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D2" s="86"/>
       <c r="E2" s="86"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="85" t="s">
+        <v>82</v>
+      </c>
+      <c r="C3" s="85" t="s">
+        <v>83</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AmpedBiz/.data/ImportFiles/Nicon/default_suppliers.xlsx
+++ b/AmpedBiz/.data/ImportFiles/Nicon/default_suppliers.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20736" windowHeight="11760" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="smscci_coffee" sheetId="5" state="hidden" r:id="rId1"/>
@@ -175,7 +175,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="170">
   <si>
     <t>SAN MIGUEL INTEGRATED SALES</t>
   </si>
@@ -433,6 +433,258 @@
   </si>
   <si>
     <t>Name</t>
+  </si>
+  <si>
+    <t>JIENY SIO RICE TRADING</t>
+  </si>
+  <si>
+    <t>JSIO</t>
+  </si>
+  <si>
+    <t>RGSOI</t>
+  </si>
+  <si>
+    <t>RGPI</t>
+  </si>
+  <si>
+    <t>RIGHT GOODS PHILIPPINES INCORPORATED</t>
+  </si>
+  <si>
+    <t>JEDI</t>
+  </si>
+  <si>
+    <t>JE DISTRIBUTORS INC</t>
+  </si>
+  <si>
+    <t>UNI-LINK SALES &amp; DISTRIBUTION CORPORATION</t>
+  </si>
+  <si>
+    <t>ULINK</t>
+  </si>
+  <si>
+    <t>VITA-LIZE DISTRIBUTIONS INCORPORATED</t>
+  </si>
+  <si>
+    <t>VLDI</t>
+  </si>
+  <si>
+    <t>JRP</t>
+  </si>
+  <si>
+    <t>JRP SOFTDRINKS</t>
+  </si>
+  <si>
+    <t>HEADS UP VENTURES &amp; DISTRIBUTIONS CORP.</t>
+  </si>
+  <si>
+    <t>HUVD</t>
+  </si>
+  <si>
+    <t>RIGHT GOODS SOUTH OPERATIONS INC.</t>
+  </si>
+  <si>
+    <t>PRES</t>
+  </si>
+  <si>
+    <t>PREFERREDESSENTIALS CORP</t>
+  </si>
+  <si>
+    <t>DRM</t>
+  </si>
+  <si>
+    <t>DRM INTEGRAL DITRIBUTORS INC.</t>
+  </si>
+  <si>
+    <t>NOR</t>
+  </si>
+  <si>
+    <t>NOR DISTRIBUTION ENTERPRISE</t>
+  </si>
+  <si>
+    <t>ICO</t>
+  </si>
+  <si>
+    <t>ICO FAMILY ENTERPRISE</t>
+  </si>
+  <si>
+    <t>DIMAX</t>
+  </si>
+  <si>
+    <t>DIMAX DISTRIBUTION ENTERPRISE</t>
+  </si>
+  <si>
+    <t>888 FAST MOVER PRODUCTS MANAGEMENT INC.</t>
+  </si>
+  <si>
+    <t>KELLY</t>
+  </si>
+  <si>
+    <t>RODRIGO</t>
+  </si>
+  <si>
+    <t>MARIO</t>
+  </si>
+  <si>
+    <t>STRAWBERRY FOODS CORPORATION</t>
+  </si>
+  <si>
+    <t>SFC</t>
+  </si>
+  <si>
+    <t>TYRONE</t>
+  </si>
+  <si>
+    <t>ROLLY</t>
+  </si>
+  <si>
+    <t>MARY</t>
+  </si>
+  <si>
+    <t>VERGEL</t>
+  </si>
+  <si>
+    <t>MARICHU</t>
+  </si>
+  <si>
+    <t>LOUIE</t>
+  </si>
+  <si>
+    <t>ABBY</t>
+  </si>
+  <si>
+    <t>REY</t>
+  </si>
+  <si>
+    <t>ERIC</t>
+  </si>
+  <si>
+    <t>JEFF</t>
+  </si>
+  <si>
+    <t>RIA</t>
+  </si>
+  <si>
+    <t>ARIEL</t>
+  </si>
+  <si>
+    <t>CAD</t>
+  </si>
+  <si>
+    <t>BIGE</t>
+  </si>
+  <si>
+    <t>BIG E LEMON SQUARE</t>
+  </si>
+  <si>
+    <t>YAKULT PHILIPPINES INC</t>
+  </si>
+  <si>
+    <t>YPI</t>
+  </si>
+  <si>
+    <t>PACKAGING CENTER</t>
+  </si>
+  <si>
+    <t>SSG SUPERMART</t>
+  </si>
+  <si>
+    <t>SSG</t>
+  </si>
+  <si>
+    <t>PUREGOLD PRICE CLUB</t>
+  </si>
+  <si>
+    <t>PPC</t>
+  </si>
+  <si>
+    <t>SUY SING</t>
+  </si>
+  <si>
+    <t>SS</t>
+  </si>
+  <si>
+    <t>NATIONAL FOOD AUTHORITY</t>
+  </si>
+  <si>
+    <t>NFA</t>
+  </si>
+  <si>
+    <t>201 INFINITY</t>
+  </si>
+  <si>
+    <t>CUSTOMER FIRST</t>
+  </si>
+  <si>
+    <t>CF</t>
+  </si>
+  <si>
+    <t>APOLLO PLUS</t>
+  </si>
+  <si>
+    <t>AP</t>
+  </si>
+  <si>
+    <t>RS</t>
+  </si>
+  <si>
+    <t>REACHMORE SALES</t>
+  </si>
+  <si>
+    <t>ABC</t>
+  </si>
+  <si>
+    <t>ADVANCE BUSINESS CONCEPT</t>
+  </si>
+  <si>
+    <t>CDC</t>
+  </si>
+  <si>
+    <t>CA-MIL DISTRIBUTION CORP</t>
+  </si>
+  <si>
+    <t>VADUZ MARKETING</t>
+  </si>
+  <si>
+    <t>VM</t>
+  </si>
+  <si>
+    <t>ENERLIFE PHILIPPINES</t>
+  </si>
+  <si>
+    <t>EP</t>
+  </si>
+  <si>
+    <t>YVETTE</t>
+  </si>
+  <si>
+    <t>LIWAYWAY PRODUCTS</t>
+  </si>
+  <si>
+    <t>LP</t>
+  </si>
+  <si>
+    <t>MONARCHY TRADING</t>
+  </si>
+  <si>
+    <t>MT</t>
+  </si>
+  <si>
+    <t>PHILIPPINES SWEDISH MATCH</t>
+  </si>
+  <si>
+    <t>PSM</t>
+  </si>
+  <si>
+    <t>ED</t>
+  </si>
+  <si>
+    <t>EGG DEALER</t>
+  </si>
+  <si>
+    <t>RHODELYN</t>
+  </si>
+  <si>
+    <t>CENTRO ASIA DISTRIBUTION INC.</t>
   </si>
 </sst>
 </file>
@@ -727,7 +979,7 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="93">
+  <cellXfs count="95">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -894,6 +1146,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="1" fontId="4" fillId="2" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1526,35 +1782,35 @@
     </row>
     <row r="7" spans="1:15" s="51" customFormat="1" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="77"/>
-      <c r="B7" s="89" t="s">
+      <c r="B7" s="91" t="s">
         <v>2</v>
       </c>
-      <c r="C7" s="90" t="s">
+      <c r="C7" s="92" t="s">
         <v>26</v>
       </c>
       <c r="D7" s="78"/>
       <c r="E7" s="79"/>
-      <c r="F7" s="91" t="s">
+      <c r="F7" s="93" t="s">
         <v>15</v>
       </c>
-      <c r="G7" s="91"/>
-      <c r="H7" s="91" t="s">
+      <c r="G7" s="93"/>
+      <c r="H7" s="93" t="s">
         <v>76</v>
       </c>
-      <c r="I7" s="92"/>
-      <c r="J7" s="92"/>
-      <c r="K7" s="92"/>
-      <c r="L7" s="88" t="s">
+      <c r="I7" s="94"/>
+      <c r="J7" s="94"/>
+      <c r="K7" s="94"/>
+      <c r="L7" s="90" t="s">
         <v>16</v>
       </c>
-      <c r="M7" s="88" t="s">
+      <c r="M7" s="90" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:15" s="51" customFormat="1" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="77"/>
-      <c r="B8" s="89"/>
-      <c r="C8" s="90"/>
+      <c r="B8" s="91"/>
+      <c r="C8" s="92"/>
       <c r="D8" s="80" t="s">
         <v>3</v>
       </c>
@@ -1579,8 +1835,8 @@
       <c r="K8" s="81" t="s">
         <v>24</v>
       </c>
-      <c r="L8" s="88"/>
-      <c r="M8" s="88"/>
+      <c r="L8" s="90"/>
+      <c r="M8" s="90"/>
       <c r="N8" s="82" t="s">
         <v>77</v>
       </c>
@@ -2837,16 +3093,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.109375" style="85" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.109375" style="85" customWidth="1"/>
+    <col min="2" max="2" width="15.109375" style="85" customWidth="1"/>
     <col min="3" max="3" width="45.44140625" style="85" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.44140625" style="85" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="24.109375" style="85" bestFit="1" customWidth="1"/>
@@ -2891,6 +3147,337 @@
         <v>83</v>
       </c>
     </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="85" t="s">
+        <v>87</v>
+      </c>
+      <c r="B4" s="85" t="s">
+        <v>120</v>
+      </c>
+      <c r="C4" s="85" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="85" t="s">
+        <v>88</v>
+      </c>
+      <c r="B5" s="85" t="s">
+        <v>121</v>
+      </c>
+      <c r="C5" s="88" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="88" t="s">
+        <v>89</v>
+      </c>
+      <c r="B6" s="88" t="s">
+        <v>122</v>
+      </c>
+      <c r="C6" s="88" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="88" t="s">
+        <v>91</v>
+      </c>
+      <c r="B7" s="88" t="s">
+        <v>123</v>
+      </c>
+      <c r="C7" s="88" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="88" t="s">
+        <v>94</v>
+      </c>
+      <c r="B8" s="85" t="s">
+        <v>114</v>
+      </c>
+      <c r="C8" s="88" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="88" t="s">
+        <v>96</v>
+      </c>
+      <c r="B9" s="85" t="s">
+        <v>115</v>
+      </c>
+      <c r="C9" s="88" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="88" t="s">
+        <v>97</v>
+      </c>
+      <c r="B10" s="88" t="s">
+        <v>124</v>
+      </c>
+      <c r="C10" s="88" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="88" t="s">
+        <v>100</v>
+      </c>
+      <c r="B11" s="88" t="s">
+        <v>125</v>
+      </c>
+      <c r="C11" s="88" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="88" t="s">
+        <v>102</v>
+      </c>
+      <c r="B12" s="88" t="s">
+        <v>126</v>
+      </c>
+      <c r="C12" s="88" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="88" t="s">
+        <v>104</v>
+      </c>
+      <c r="B13" s="85" t="s">
+        <v>119</v>
+      </c>
+      <c r="C13" s="88" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="88" t="s">
+        <v>106</v>
+      </c>
+      <c r="B14" s="88" t="s">
+        <v>127</v>
+      </c>
+      <c r="C14" s="88" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="88" t="s">
+        <v>108</v>
+      </c>
+      <c r="B15" s="88" t="s">
+        <v>128</v>
+      </c>
+      <c r="C15" s="88" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="88" t="s">
+        <v>110</v>
+      </c>
+      <c r="B16" s="88" t="s">
+        <v>129</v>
+      </c>
+      <c r="C16" s="88" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="89">
+        <v>888</v>
+      </c>
+      <c r="B17" s="85" t="s">
+        <v>113</v>
+      </c>
+      <c r="C17" s="88" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="88" t="s">
+        <v>117</v>
+      </c>
+      <c r="B18" s="85" t="s">
+        <v>118</v>
+      </c>
+      <c r="C18" s="88" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="88" t="s">
+        <v>130</v>
+      </c>
+      <c r="C19" s="88" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="88" t="s">
+        <v>131</v>
+      </c>
+      <c r="C20" s="88" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="88" t="s">
+        <v>134</v>
+      </c>
+      <c r="C21" s="88" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="88" t="s">
+        <v>3</v>
+      </c>
+      <c r="C22" s="88" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="88" t="s">
+        <v>137</v>
+      </c>
+      <c r="C23" s="88" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="88" t="s">
+        <v>139</v>
+      </c>
+      <c r="C24" s="88" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="88" t="s">
+        <v>141</v>
+      </c>
+      <c r="B25" s="85" t="s">
+        <v>159</v>
+      </c>
+      <c r="C25" s="88" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="88" t="s">
+        <v>143</v>
+      </c>
+      <c r="C26" s="88" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="89">
+        <v>201</v>
+      </c>
+      <c r="C27" s="88" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="88" t="s">
+        <v>146</v>
+      </c>
+      <c r="C28" s="88" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="88" t="s">
+        <v>158</v>
+      </c>
+      <c r="C29" s="88" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="88" t="s">
+        <v>148</v>
+      </c>
+      <c r="C30" s="88" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" s="88" t="s">
+        <v>149</v>
+      </c>
+      <c r="C31" s="88" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" s="88" t="s">
+        <v>151</v>
+      </c>
+      <c r="C32" s="88" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="88" t="s">
+        <v>153</v>
+      </c>
+      <c r="C33" s="88" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" s="88" t="s">
+        <v>156</v>
+      </c>
+      <c r="C34" s="88" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" s="88" t="s">
+        <v>161</v>
+      </c>
+      <c r="C35" s="88" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" s="88" t="s">
+        <v>163</v>
+      </c>
+      <c r="C36" s="88" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="88" t="s">
+        <v>165</v>
+      </c>
+      <c r="C37" s="88" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" s="88" t="s">
+        <v>166</v>
+      </c>
+      <c r="B38" s="85" t="s">
+        <v>168</v>
+      </c>
+      <c r="C38" s="88" t="s">
+        <v>167</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId1"/>
